--- a/Template/Example/Логины.xlsx
+++ b/Template/Example/Логины.xlsx
@@ -1,73 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_dev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Логины" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Логины!$A$1:$F$1</x:definedName>
-  </x:definedNames>
-  <x:calcPr calcId="152511"/>
-</x:workbook>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Логины" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Логины!$A$1:$H$1</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <x:si>
-    <x:t>Дата</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Итог</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Подробности</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Фамилия</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Имя</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Отчество</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Логин</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Иванов</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сергей</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>Загружен</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08.02.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ivanov_s</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Подробности</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Логин</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>zakon</t>
+  </si>
+  <si>
+    <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Законов</t>
+  </si>
+  <si>
+    <t>zakonov@test.test</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +79,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
@@ -158,13 +164,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,69 +454,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:dimension ref="A1:G2"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:7" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B1" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="A2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:autoFilter ref="A1:F1"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>